--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_04_end.xlsx
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Young lady, look at how the sky is bright now. We've gone quite a far way, and we'll be there soon. Don't you cry.
+    <t xml:space="preserve">[name="Mr. Nothing"]Young lady, look at how the sky is bright now. We've gone quite a far way, and we'll be there soon. Don't you cry.
 </t>
   </si>
   <si>
@@ -624,11 +624,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Now, now, I'm here with you. You're perfectly safe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]*Sigh*... don't cry, now, don't cry. Look, you can see the garden. We'll be right there.
+    <t xml:space="preserve">[name="Mr. Nothing"]Now, now, I'm here with you. You're perfectly safe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]*Sigh*... don't cry, now, don't cry. Look, you can see the garden. We'll be right there.
 </t>
   </si>
   <si>
@@ -640,11 +640,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Wh—Why are they here?! Weren't they meant to fear the sun?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Come, ride on my back, hold on!
+    <t xml:space="preserve">[name="Mr. Nothing"]Wh—Why are they here?! Weren't they meant to fear the sun?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Come, ride on my back, hold on!
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Don't—Don't pull on my hair! My glasses are falling off!
+    <t xml:space="preserve">[name="Mr. Nothing"]Don't—Don't pull on my hair! My glasses are falling off!
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kroos"]He runs pretty darn quick, that Mr.Nothing.
+    <t xml:space="preserve">[name="Kroos"]He runs pretty darn quick, that Mr. Nothing.
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kroos"]Maybe it really can't catch up to Mr.Nothing...? Who'd have thought?
+    <t xml:space="preserve">[name="Kroos"]Maybe it really can't catch up to Mr. Nothing...? Who'd have thought?
 </t>
   </si>
   <si>
@@ -688,11 +688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Watch this! Hey! Heh! Yah!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Hahah! Can't get us now, can you!
+    <t xml:space="preserve">[name="Mr. Nothing"]Watch this! Hey! Heh! Yah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Hahah! Can't get us now, can you!
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I've wanted to do that forever! Pull off a little something when you're chased through the streets, just like all those martial arts stars on the silver screen!
+    <t xml:space="preserve">[name="Mr. Nothing"]I've wanted to do that forever! Pull off a little something when you're chased through the streets, just like all those martial arts stars on the silver screen!
 </t>
   </si>
   <si>
@@ -712,7 +712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Don't smack me! I'm not a burdenbeast!
+    <t xml:space="preserve">[name="Mr. Nothing"]Don't smack me! I'm not a burdenbeast!
 </t>
   </si>
   <si>
@@ -720,7 +720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]It went around!? With the sun shining on its ass! Didn't they say these things feared sunlight?
+    <t xml:space="preserve">[name="Mr. Nothing"]It went around!? With the sun shining on its ass! Didn't they say these things feared sunlight?
 </t>
   </si>
   <si>
@@ -728,7 +728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Tck! Here, young lady, you go on ahead, I'll—
+    <t xml:space="preserve">[name="Mr. Nothing"]Tck! Here, young lady, you go on ahead, I'll—
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]It's Kroos, my benefactor! Dear me, here, good benefactor, come, if you had a free hand, you could've helped me a little sooner! Er, where, where are you?
+    <t xml:space="preserve">[name="Mr. Nothing"]It's Kroos, my benefactor! Dear me, here, good benefactor, come, if you had a free hand, you could've helped me a little sooner! Er, where, where are you?
 </t>
   </si>
   <si>
@@ -752,7 +752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Wow! I'd be remiss not to laud your sniping skills as beyond the blue! You slip about like a ghost, land without a whisper! You really are—
+    <t xml:space="preserve">[name="Mr. Nothing"]Wow! I'd be remiss not to laud your sniping skills as beyond the blue! You slip about like a ghost, land without a whisper! You really are—
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Err.
+    <t xml:space="preserve">[name="Mr. Nothing"]Err.
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor, why don't you hurry to Lava and Saga's aid? Let me keep watch here, safeguard the perimeter.
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor, why don't you hurry to Lava and Saga's aid? Let me keep watch here, safeguard the perimeter.
 </t>
   </si>
   <si>
@@ -780,7 +780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]B—Benefactor, might you have the gift of clairaudience...?
+    <t xml:space="preserve">[name="Mr. Nothing"]B—Benefactor, might you have the gift of clairaudience...?
 </t>
   </si>
   <si>
@@ -792,11 +792,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ah, I simply must! This fan is the most precious thing I have, a present to me from my most respected teacher! I'd hate to let it out of my grasp!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Moreover, here, clasping this fan in my hand, I look quite refined, don't I?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ah, I simply must! This fan is the most precious thing I have, a present to me from my most respected teacher! I'd hate to let it out of my grasp!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Moreover, here, clasping this fan in my hand, I look quite refined, don't I?
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I was wondering too! That cretin chased the wind out of me!
+    <t xml:space="preserve">[name="Mr. Nothing"]I was wondering too! That cretin chased the wind out of me!
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="크루스"]흠……
+    <t xml:space="preserve">[name="크루스"]음……
 </t>
   </si>
   <si>
